--- a/PEI_DW/ConstelationMatrix.xlsx
+++ b/PEI_DW/ConstelationMatrix.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
     <sheet name="Folha3" sheetId="3" r:id="rId2"/>
     <sheet name="Folha4" sheetId="4" r:id="rId3"/>
+    <sheet name="Folha1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="41">
   <si>
     <t>address</t>
   </si>
@@ -143,13 +144,19 @@
   </si>
   <si>
     <t>relat. Semanal alugueres alugures</t>
+  </si>
+  <si>
+    <t>FILM</t>
+  </si>
+  <si>
+    <t>Prendas p/ festa natal &gt; 14 anos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +212,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,31 +418,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,6 +508,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -503,6 +543,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,70 +861,70 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
     <col min="5" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="13" width="5.28515625" style="30" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="29" customWidth="1"/>
+    <col min="12" max="13" width="5.28515625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="24" customWidth="1"/>
     <col min="15" max="18" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="57" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -871,21 +935,21 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3"/>
@@ -900,21 +964,21 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="3"/>
@@ -927,21 +991,21 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="3"/>
@@ -954,23 +1018,23 @@
       <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3"/>
@@ -979,25 +1043,25 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="K6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4"/>
@@ -1006,25 +1070,25 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-    </row>
-    <row r="8" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="19" t="s">
+      <c r="K7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1"/>
@@ -1033,25 +1097,25 @@
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="K8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3"/>
@@ -1060,27 +1124,27 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="K9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3"/>
@@ -1089,25 +1153,25 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3"/>
@@ -1116,27 +1180,27 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="36" t="s">
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="3"/>
@@ -1145,19 +1209,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1193,14 +1257,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="57" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1218,39 +1282,39 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1261,21 +1325,21 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3"/>
@@ -1290,21 +1354,21 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="3"/>
@@ -1317,21 +1381,21 @@
       <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3"/>
@@ -1344,23 +1408,23 @@
       <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3"/>
@@ -1371,25 +1435,25 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="K7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4"/>
@@ -1400,25 +1464,25 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="K8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
@@ -1429,25 +1493,25 @@
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="K9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3"/>
@@ -1458,27 +1522,27 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="K10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3"/>
@@ -1487,25 +1551,25 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="3"/>
@@ -1518,27 +1582,27 @@
       <c r="J12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="36" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3"/>
@@ -1549,16 +1613,16 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36" t="s">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1578,7 +1642,7 @@
   <dimension ref="A2:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="C2:AC13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,14 +1663,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="57" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="62" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1624,57 +1688,57 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="27">
-        <v>1</v>
-      </c>
-      <c r="T2" s="27">
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
         <v>2</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="22">
         <v>3</v>
       </c>
-      <c r="V2" s="27">
+      <c r="V2" s="22">
         <v>4</v>
       </c>
-      <c r="W2" s="27">
+      <c r="W2" s="22">
         <v>5</v>
       </c>
-      <c r="X2" s="27">
+      <c r="X2" s="22">
         <v>6</v>
       </c>
-      <c r="Y2" s="27">
+      <c r="Y2" s="22">
         <v>7</v>
       </c>
-      <c r="Z2" s="27">
+      <c r="Z2" s="22">
         <v>8</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AA2" s="22">
         <v>9</v>
       </c>
-      <c r="AB2" s="27">
+      <c r="AB2" s="22">
         <v>10</v>
       </c>
-      <c r="AC2" s="27">
+      <c r="AC2" s="22">
         <v>11</v>
       </c>
     </row>
@@ -1682,52 +1746,54 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="61" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3"/>
@@ -1741,44 +1807,46 @@
         <v>29</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="45" t="s">
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="3"/>
@@ -1791,41 +1859,41 @@
       <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="45" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3"/>
@@ -1838,37 +1906,37 @@
       <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3"/>
@@ -1879,39 +1947,39 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
+      <c r="K7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="4"/>
@@ -1922,88 +1990,88 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
+      <c r="K8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="45" t="s">
+      <c r="K9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3"/>
@@ -2014,41 +2082,43 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
+      <c r="K10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3"/>
@@ -2057,37 +2127,37 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="3"/>
@@ -2100,43 +2170,43 @@
       <c r="J12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="45" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="27"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="22"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3"/>
@@ -2147,43 +2217,38 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="48" t="s">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27" t="s">
+      <c r="Q13" s="53"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P12:R12"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B3:B6"/>
@@ -2194,8 +2259,617 @@
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="26" width="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" ht="57" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2" s="22">
+        <v>2</v>
+      </c>
+      <c r="T2" s="22">
+        <v>3</v>
+      </c>
+      <c r="U2" s="22">
+        <v>4</v>
+      </c>
+      <c r="V2" s="22">
+        <v>5</v>
+      </c>
+      <c r="W2" s="22">
+        <v>6</v>
+      </c>
+      <c r="X2" s="22">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+    </row>
+    <row r="4" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+    </row>
+    <row r="5" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+    </row>
+    <row r="6" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+    </row>
+    <row r="7" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+    </row>
+    <row r="8" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+    </row>
+    <row r="9" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+    </row>
+    <row r="10" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+    </row>
+    <row r="11" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+    </row>
+    <row r="12" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+    </row>
+    <row r="13" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="22"/>
+    </row>
+    <row r="14" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PEI_DW/ConstelationMatrix.xlsx
+++ b/PEI_DW/ConstelationMatrix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="46">
   <si>
     <t>address</t>
   </si>
@@ -149,14 +149,29 @@
     <t>FILM</t>
   </si>
   <si>
-    <t>Prendas p/ festa natal &gt; 14 anos</t>
+    <t>XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relat. Mensal actores e alugueres </t>
+  </si>
+  <si>
+    <t>Evolução semanal de alugueres por categoria</t>
+  </si>
+  <si>
+    <t>Festa natal crianças idade até 14 anos</t>
+  </si>
+  <si>
+    <t>Aquisições  mensais dos funcionários</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,21 +223,6 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -520,6 +517,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,12 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +845,7 @@
   <dimension ref="B1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:R12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,8 +855,8 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" customWidth="1"/>
     <col min="5" max="11" width="5.28515625" customWidth="1"/>
-    <col min="12" max="13" width="5.28515625" style="25" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="24" customWidth="1"/>
+    <col min="12" max="13" width="5.28515625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="23" customWidth="1"/>
     <col min="15" max="18" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,46 +868,46 @@
         <v>10</v>
       </c>
       <c r="D1" s="50"/>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -935,14 +929,14 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="48"/>
@@ -964,14 +958,14 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
@@ -991,14 +985,14 @@
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="48"/>
@@ -1018,14 +1012,14 @@
       <c r="J5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="48" t="s">
@@ -1043,18 +1037,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="K6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
@@ -1070,18 +1064,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="K7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="48"/>
@@ -1097,18 +1091,18 @@
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="K8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
@@ -1124,18 +1118,18 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="K9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="48" t="s">
@@ -1153,18 +1147,18 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
@@ -1180,18 +1174,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="31" t="s">
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1209,19 +1203,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="23"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1240,7 +1234,7 @@
   <dimension ref="B2:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="B2:O13"/>
+      <selection activeCell="B2" sqref="B2:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="51"/>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1282,28 +1276,28 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1311,10 +1305,10 @@
       <c r="B3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1324,15 +1318,17 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="48"/>
@@ -1353,15 +1349,17 @@
         <v>1</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="48"/>
@@ -1381,14 +1379,14 @@
       <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="48"/>
@@ -1401,21 +1399,21 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
@@ -1435,18 +1433,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="K7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="48"/>
@@ -1464,47 +1462,47 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="K8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
       <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="K9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
@@ -1522,18 +1520,18 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="K10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
@@ -1551,18 +1549,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
@@ -1582,18 +1580,18 @@
       <c r="J12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="31" t="s">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1613,16 +1611,16 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1634,6 +1632,7 @@
     <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1642,11 +1641,12 @@
   <dimension ref="A2:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2:AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1657,7 +1657,7 @@
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.85546875" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="18" max="18" width="30" customWidth="1"/>
     <col min="19" max="27" width="2" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="51"/>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1688,57 +1688,57 @@
       <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="22">
-        <v>1</v>
-      </c>
-      <c r="T2" s="22">
+      <c r="S2" s="21">
+        <v>1</v>
+      </c>
+      <c r="T2" s="21">
         <v>2</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="21">
         <v>3</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="21">
         <v>4</v>
       </c>
-      <c r="W2" s="22">
+      <c r="W2" s="21">
         <v>5</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="21">
         <v>6</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="21">
         <v>7</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="Z2" s="21">
         <v>8</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AA2" s="21">
         <v>9</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AB2" s="21">
         <v>10</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AC2" s="21">
         <v>11</v>
       </c>
     </row>
@@ -1749,41 +1749,41 @@
       <c r="B3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>29</v>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="55"/>
       <c r="Q3" s="56"/>
       <c r="R3" s="57"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1798,45 +1798,41 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="55" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="56"/>
       <c r="R4" s="57"/>
-      <c r="S4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1854,36 +1850,36 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="55" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="56"/>
       <c r="R5" s="57"/>
-      <c r="S5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1899,32 +1895,32 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="55"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="57"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1942,34 +1938,34 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
+      <c r="K7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="55"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1985,34 +1981,34 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
+      <c r="K8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="55"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="57"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2028,40 +2024,36 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="8" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="55" t="s">
-        <v>35</v>
-      </c>
+      <c r="K9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="57"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2082,31 +2074,33 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="31"/>
+      <c r="K10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="30"/>
       <c r="P10" s="55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="56"/>
       <c r="R10" s="57"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2127,27 +2121,27 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31" t="s">
-        <v>29</v>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="s">
+        <v>1</v>
       </c>
       <c r="P11" s="55"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="57"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2170,33 +2164,31 @@
       <c r="J12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31" t="s">
-        <v>29</v>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="P12" s="55" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="56"/>
       <c r="R12" s="57"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2217,11 +2209,11 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="P13" s="52" t="s">
@@ -2229,21 +2221,17 @@
       </c>
       <c r="Q13" s="53"/>
       <c r="R13" s="54"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22" t="s">
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2293,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="51"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2311,94 +2299,94 @@
       <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="22">
-        <v>1</v>
-      </c>
-      <c r="S2" s="22">
+      <c r="R2" s="21">
+        <v>1</v>
+      </c>
+      <c r="S2" s="21">
         <v>2</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="21">
         <v>3</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="21">
         <v>4</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="21">
         <v>5</v>
       </c>
-      <c r="W2" s="22">
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="21">
         <v>7</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="21">
         <v>8</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="Z2" s="21">
         <v>9</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AA2" s="21">
         <v>10</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AB2" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="45"/>
+      <c r="D3" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="58"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="60"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
@@ -2419,33 +2407,33 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="55" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="56"/>
       <c r="Q4" s="57"/>
-      <c r="R4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
+      <c r="R4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -2464,31 +2452,31 @@
       <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="55" t="s">
         <v>37</v>
       </c>
       <c r="P5" s="56"/>
       <c r="Q5" s="57"/>
-      <c r="R5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
+      <c r="R5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
     </row>
     <row r="6" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -2507,25 +2495,25 @@
       <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="55"/>
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
     </row>
     <row r="7" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -2548,25 +2536,25 @@
         <v>29</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
     </row>
     <row r="8" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -2583,29 +2571,29 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
+      <c r="J8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="55"/>
       <c r="P8" s="56"/>
       <c r="Q8" s="57"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
     </row>
     <row r="9" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
@@ -2622,29 +2610,29 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+      <c r="J9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="55"/>
       <c r="P9" s="56"/>
       <c r="Q9" s="57"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
     </row>
     <row r="10" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -2661,35 +2649,35 @@
       <c r="G10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
+      <c r="J10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="55" t="s">
         <v>35</v>
       </c>
       <c r="P10" s="56"/>
       <c r="Q10" s="57"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -2706,29 +2694,29 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="31"/>
+      <c r="J11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="30"/>
       <c r="O11" s="55"/>
       <c r="P11" s="56"/>
       <c r="Q11" s="57"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
     </row>
     <row r="12" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -2743,27 +2731,27 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="55"/>
       <c r="P12" s="56"/>
       <c r="Q12" s="57"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
     </row>
     <row r="13" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -2782,11 +2770,11 @@
       <c r="I13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="55" t="s">
@@ -2794,21 +2782,21 @@
       </c>
       <c r="P13" s="56"/>
       <c r="Q13" s="57"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="22"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="21"/>
     </row>
     <row r="14" spans="2:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
@@ -2825,11 +2813,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="31" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="52" t="s">
@@ -2837,21 +2825,21 @@
       </c>
       <c r="P14" s="53"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22" t="s">
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21" t="s">
         <v>29</v>
       </c>
     </row>

--- a/PEI_DW/ConstelationMatrix.xlsx
+++ b/PEI_DW/ConstelationMatrix.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Folha1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="50">
   <si>
     <t>address</t>
   </si>
@@ -152,19 +153,31 @@
     <t>XX</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relat. Mensal actores e alugueres </t>
-  </si>
-  <si>
-    <t>Evolução semanal de alugueres por categoria</t>
-  </si>
-  <si>
-    <t>Festa natal crianças idade até 14 anos</t>
-  </si>
-  <si>
-    <t>Aquisições  mensais dos funcionários</t>
+    <t>na</t>
+  </si>
+  <si>
+    <t>1. Filmes com melhor saída</t>
+  </si>
+  <si>
+    <t>2. Rel. Semanal de filmes alugados</t>
+  </si>
+  <si>
+    <t>3. Preferência clientes por atores</t>
+  </si>
+  <si>
+    <t>4. Preferência clientes por categorias</t>
+  </si>
+  <si>
+    <t>5. Relação de funcionarios e vencimentos</t>
+  </si>
+  <si>
+    <t>6. Festa natal crianças idade até 14 anos</t>
+  </si>
+  <si>
+    <t>7. Relação aquisições por funcionário</t>
+  </si>
+  <si>
+    <t>8. Relação de comunicações por funcionário</t>
   </si>
 </sst>
 </file>
@@ -266,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -394,11 +407,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,6 +542,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,6 +568,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -544,6 +610,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,15 +635,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -864,10 +939,10 @@
       <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="50"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="46" t="s">
         <v>26</v>
       </c>
@@ -912,7 +987,7 @@
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -939,7 +1014,7 @@
       <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
@@ -968,7 +1043,7 @@
       <c r="R3" s="30"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
@@ -995,7 +1070,7 @@
       <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1097,7 @@
       <c r="R5" s="30"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="53" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1051,7 +1126,7 @@
       <c r="R6" s="30"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1153,7 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="2:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1180,7 @@
       <c r="R8" s="30"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1207,7 @@
       <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -1161,7 +1236,7 @@
       <c r="R10" s="30"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
@@ -1190,7 +1265,7 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
@@ -1254,10 +1329,10 @@
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1377,7 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -1331,7 +1406,7 @@
       <c r="R3" s="30"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1437,7 @@
       <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1464,7 @@
       <c r="R5" s="30"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1491,7 @@
       <c r="R6" s="30"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="53" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1447,7 +1522,7 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1551,7 @@
       <c r="R8" s="30"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1580,7 @@
       <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1609,7 @@
       <c r="R10" s="30"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1563,7 +1638,7 @@
       <c r="R11" s="30"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
@@ -1596,7 +1671,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
@@ -1638,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC13"/>
+  <dimension ref="A2:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC13"/>
+      <selection activeCell="C2" sqref="C2:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,10 +1741,10 @@
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
@@ -1746,7 +1821,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="52" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -1770,9 +1845,9 @@
       <c r="M3" s="27"/>
       <c r="N3" s="29"/>
       <c r="O3" s="30"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="73"/>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
@@ -1786,40 +1861,40 @@
       <c r="AC3" s="21"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21" t="s">
         <v>1</v>
@@ -1835,43 +1910,31 @@
       <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="73"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
@@ -1883,22 +1946,22 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="48" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1907,12 +1970,18 @@
       <c r="M6" s="27"/>
       <c r="N6" s="29"/>
       <c r="O6" s="30"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="57"/>
+      <c r="P6" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="73"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
+      <c r="T6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
@@ -1924,15 +1993,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="3"/>
@@ -1942,23 +2009,27 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>1</v>
-      </c>
+      <c r="J7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57"/>
+      <c r="P7" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="73"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
+      <c r="T7" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="V7" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
@@ -1969,17 +2040,19 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1995,9 +2068,9 @@
       <c r="M8" s="27"/>
       <c r="N8" s="29"/>
       <c r="O8" s="30"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="57"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -2012,44 +2085,42 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>29</v>
-      </c>
+      <c r="L9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="27"/>
       <c r="N9" s="29"/>
       <c r="O9" s="30"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
-      <c r="Y9" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
@@ -2057,80 +2128,84 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="27" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="M10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="29"/>
       <c r="O10" s="30"/>
-      <c r="P10" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="57"/>
+      <c r="P10" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="73"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="57"/>
+      <c r="N11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -2138,44 +2213,42 @@
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
+      <c r="Z11" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="48"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="29"/>
       <c r="O12" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -2184,19 +2257,17 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
-      <c r="AA12" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="53"/>
       <c r="C13" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>22</v>
@@ -2208,19 +2279,21 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="29"/>
       <c r="O13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="54"/>
+        <v>40</v>
+      </c>
+      <c r="P13" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
@@ -2229,21 +2302,70 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="AB13" s="21"/>
-      <c r="AC13" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="P13:R13"/>
+  <mergeCells count="27">
+    <mergeCell ref="P14:R14"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="P7:R7"/>
@@ -2252,6 +2374,19 @@
     <mergeCell ref="P10:R10"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2277,10 +2412,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="57" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="31" t="s">
         <v>26</v>
       </c>
@@ -2373,9 +2508,9 @@
       <c r="L3" s="44"/>
       <c r="M3" s="45"/>
       <c r="N3" s="44"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
@@ -2412,11 +2547,11 @@
       <c r="L4" s="27"/>
       <c r="M4" s="29"/>
       <c r="N4" s="30"/>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="79"/>
       <c r="R4" s="21" t="s">
         <v>29</v>
       </c>
@@ -2457,11 +2592,11 @@
       <c r="L5" s="27"/>
       <c r="M5" s="29"/>
       <c r="N5" s="30"/>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
       <c r="R5" s="21" t="s">
         <v>29</v>
       </c>
@@ -2500,9 +2635,9 @@
       <c r="L6" s="27"/>
       <c r="M6" s="29"/>
       <c r="N6" s="30"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="57"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="79"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
@@ -2580,9 +2715,9 @@
       <c r="L8" s="27"/>
       <c r="M8" s="29"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="79"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
@@ -2619,9 +2754,9 @@
       <c r="L9" s="27"/>
       <c r="M9" s="29"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -2658,11 +2793,11 @@
       </c>
       <c r="M10" s="29"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="55" t="s">
+      <c r="O10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -2703,9 +2838,9 @@
         <v>29</v>
       </c>
       <c r="N11" s="30"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
@@ -2738,9 +2873,9 @@
       <c r="N12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
@@ -2777,11 +2912,11 @@
       <c r="N13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="55" t="s">
+      <c r="O13" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="79"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
@@ -2820,11 +2955,11 @@
       <c r="N14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="52" t="s">
+      <c r="O14" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
